--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1920.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1920.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.052850732166165</v>
+        <v>1.132781267166138</v>
       </c>
       <c r="B1">
-        <v>2.819596461037457</v>
+        <v>1.298191905021667</v>
       </c>
       <c r="C1">
-        <v>1.873009906330345</v>
+        <v>1.044164061546326</v>
       </c>
       <c r="D1">
-        <v>1.634525753072327</v>
+        <v>5.361801624298096</v>
       </c>
       <c r="E1">
-        <v>1.599109283593214</v>
+        <v>1.814984917640686</v>
       </c>
     </row>
   </sheetData>
